--- a/ig/core/StructureDefinition-medcom-assigned-identifier.xlsx
+++ b/ig/core/StructureDefinition-medcom-assigned-identifier.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.4.0</t>
+    <t>3.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-27T14:13:17+02:00</t>
+    <t>2025-09-24T12:42:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -453,7 +453,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-medcom-uuidv4:The value shall correspond to the structure of an UUID version 4 {value.matches('urn:uuid:[0-9a-f]{8}-[0-9a-f]{4}-[0-9a-f]{4}-[0-9a-f]{4}-[0-9a-f]{12}')}</t>
+medcom-uuidv4:The value shall correspond to the structure of an UUID version 4 {matches('urn:uuid:[0-9a-f]{8}-[0-9a-f]{4}-[0-9a-f]{4}-[0-9a-f]{4}-[0-9a-f]{12}')}</t>
   </si>
   <si>
     <t>CX.1 / EI.1</t>
@@ -838,44 +838,44 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="18.55078125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="18.55078125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.1328125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="12.3828125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="16.1640625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="16.1640625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="10.8515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="10.83984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="81.61328125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="70.0234375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="162.5078125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="143.54296875" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.8125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="95.56640625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="44.3984375" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="17.7265625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="32.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="84.33984375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="37.421875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="15.59375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="60.5" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="137.703125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="25.296875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="53.91015625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="123.23828125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="21.80859375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/ig/core/StructureDefinition-medcom-assigned-identifier.xlsx
+++ b/ig/core/StructureDefinition-medcom-assigned-identifier.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.0.0</t>
+    <t>3.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-24T12:42:36+00:00</t>
+    <t>2025-10-29T07:28:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -400,7 +400,7 @@
     <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type|4.0.1</t>
   </si>
   <si>
     <t>CX.5</t>
@@ -863,7 +863,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="84.33984375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="37.421875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="38.1484375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>

--- a/ig/core/StructureDefinition-medcom-assigned-identifier.xlsx
+++ b/ig/core/StructureDefinition-medcom-assigned-identifier.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.0.1</t>
+    <t>4.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T07:28:01+00:00</t>
+    <t>2026-01-13T14:04:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
